--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3239681.585952029</v>
+        <v>3235375.869575958</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>307.9222910483171</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>36.80453676746914</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>58.94036353859026</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>163.0915657041709</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>227.8278650602047</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>129.0326605836836</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>61.86891074510375</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>17.08047085294254</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>208.4905322260634</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>181.9914885732051</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790577</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>98.79136808967674</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>136.1078891637031</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>20.88994825141578</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>94.5970333621318</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2484,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>90.14863908058081</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>10.5836444346749</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>6.600826611595825</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>35.9987177458277</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>11.76284745948112</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216687</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>192.5971349882551</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444133</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695537</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>93.05052491174666</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>137.0965178272089</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.11937003877918</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>378.8990031022959</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2483.795303567272</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2152.732416223701</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1799.963760953587</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>1426.498002692507</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="3">
@@ -4400,40 +4400,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>261.3917961488083</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1394.624369323446</v>
+        <v>2255.520561484593</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1886.558044544181</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1528.292345937431</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W5" t="n">
-        <v>2158.229459560338</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X5" t="n">
-        <v>1784.763701299258</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="Y5" t="n">
-        <v>1394.624369323446</v>
+        <v>2642.120401548715</v>
       </c>
     </row>
     <row r="6">
@@ -4643,22 +4643,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>332.1920961943572</v>
+        <v>477.9194859165259</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>308.983302988619</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.712065060056</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.712065060056</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.712065060056</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.712065060056</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.712065060056</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.712065060056</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245969</v>
+        <v>477.9194859165259</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1728.937854520596</v>
+        <v>453.2058773455028</v>
       </c>
       <c r="C8" t="n">
-        <v>1359.975337580184</v>
+        <v>84.24336040509104</v>
       </c>
       <c r="D8" t="n">
-        <v>1001.709638973434</v>
+        <v>84.24336040509104</v>
       </c>
       <c r="E8" t="n">
-        <v>1001.709638973434</v>
+        <v>84.24336040509104</v>
       </c>
       <c r="F8" t="n">
-        <v>590.7237341838262</v>
+        <v>66.99035954353292</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.457603079992</v>
+        <v>1094.463253419559</v>
       </c>
       <c r="M8" t="n">
-        <v>1218.1570159054</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>1685.688719890255</v>
+        <v>1475.496879136949</v>
       </c>
       <c r="O8" t="n">
-        <v>2232.849924657333</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243321</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4834,22 +4834,22 @@
         <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="V8" t="n">
-        <v>2326.134191782762</v>
+        <v>1956.17946291663</v>
       </c>
       <c r="W8" t="n">
-        <v>2326.134191782762</v>
+        <v>1603.410807646516</v>
       </c>
       <c r="X8" t="n">
-        <v>2326.134191782762</v>
+        <v>1229.945049385436</v>
       </c>
       <c r="Y8" t="n">
-        <v>2115.537694584718</v>
+        <v>839.8057174096245</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>200.7638166852433</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004795</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>502.0306379830699</v>
       </c>
       <c r="L9" t="n">
-        <v>520.6009841418684</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1161.146333608973</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
-        <v>1828.690733635983</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>1988.203046304744</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>178.4546564460382</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>178.4546564460382</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>178.4546564460382</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>178.4546564460382</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>178.4546564460382</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>178.4546564460382</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>178.4546564460382</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4995,19 +4995,19 @@
         <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>764.7254868573889</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>580.895700419808</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>580.895700419808</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>580.895700419808</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>360.1031212762779</v>
+        <v>849.4473100711502</v>
       </c>
     </row>
     <row r="11">
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,16 +5053,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="14">
@@ -5260,46 +5260,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>139.234765840794</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>634.5603720565526</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683105</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>558.0193492433381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>558.0193492433381</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5503,34 +5503,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>2878.328163333972</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>3241.424143276705</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N18" t="n">
-        <v>3869.022106831312</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>4420.931837070599</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>323.8164599824514</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,7 +5764,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5834,19 +5834,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>671.2000270096659</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3194.624135499465</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C25" t="n">
-        <v>3025.687952571559</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D25" t="n">
-        <v>2875.571313159223</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>408.6744289523863</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>4151.857387650098</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V25" t="n">
-        <v>3897.172899444211</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W25" t="n">
-        <v>3607.75572940725</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X25" t="n">
-        <v>3597.065179473235</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y25" t="n">
-        <v>3376.272600329705</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2978.516248701935</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2809.580065774028</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>2659.463426361692</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>2511.550332779299</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2511.550332779299</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2344.354233494179</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2344.354233494179</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3160.164713532175</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2913.946970978147</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3511.325458604699</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>4138.923422159306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>962.6357307816191</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C34" t="n">
-        <v>793.6995478537123</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D34" t="n">
-        <v>643.5829084413765</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611859</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.284195611859</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="35">
@@ -6928,37 +6928,37 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.119922845744</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1169.343099994721</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>948.5505208511905</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362682</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3173.601046153953</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153953</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741617</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159224</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>4127.340720125057</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>3872.656231919171</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>3583.23906188221</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>3355.249510984193</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>3355.249510984193</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7390,16 +7390,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,37 +7423,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>847.644273983533</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1478.07486885532</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1250.085317957303</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1029.292738813773</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7648,10 +7648,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>221.3431781811715</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>641.8461362382112</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>472.9099533103043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627892</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284443</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>275.9570617099729</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,25 +8531,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>311.7999084534176</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>126.9182872993604</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.72409101823416</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>127.7255247667966</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>72.64978773649604</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>75.37549921168804</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>215.1260109543622</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>74.66500970696971</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>216.1389255780003</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>134.671115187088</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>33.11252040078205</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>193.1339494774975</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>149.4264805093821</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>126.7126101431581</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>711132.8264488542</v>
+        <v>711132.8264488541</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>711132.8264488541</v>
+        <v>711132.8264488542</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312475</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="F2" t="n">
         <v>706253.2747287552</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.274728755</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287552</v>
       </c>
       <c r="I2" t="n">
+        <v>706253.2747287549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287549</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682721</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682721</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="I4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="K4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.53656668272</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682721</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682719</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682686</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>87562.04517084679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-164337.8241097394</v>
+        <v>-164337.8241097391</v>
       </c>
       <c r="C6" t="n">
-        <v>425630.0551048053</v>
+        <v>425630.0551048054</v>
       </c>
       <c r="D6" t="n">
         <v>269826.2490110098</v>
       </c>
       <c r="E6" t="n">
-        <v>-171599.4830426409</v>
+        <v>-171946.8622969981</v>
       </c>
       <c r="F6" t="n">
-        <v>599453.2083381654</v>
+        <v>599105.8290838085</v>
       </c>
       <c r="G6" t="n">
-        <v>599453.2083381655</v>
+        <v>599105.8290838082</v>
       </c>
       <c r="H6" t="n">
-        <v>599453.2083381654</v>
+        <v>599105.8290838085</v>
       </c>
       <c r="I6" t="n">
-        <v>599453.2083381655</v>
+        <v>599105.8290838082</v>
       </c>
       <c r="J6" t="n">
-        <v>423029.9891455729</v>
+        <v>422682.6098912155</v>
       </c>
       <c r="K6" t="n">
-        <v>599453.2083381652</v>
+        <v>599105.8290838087</v>
       </c>
       <c r="L6" t="n">
-        <v>599453.2083381654</v>
+        <v>599105.8290838081</v>
       </c>
       <c r="M6" t="n">
-        <v>475244.6976301068</v>
+        <v>474897.3183757503</v>
       </c>
       <c r="N6" t="n">
-        <v>599453.2083381659</v>
+        <v>599105.8290838085</v>
       </c>
       <c r="O6" t="n">
-        <v>599453.2083381657</v>
+        <v>599105.8290838086</v>
       </c>
       <c r="P6" t="n">
-        <v>599453.2083381658</v>
+        <v>599105.8290838089</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,16 +26986,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>98.95375469339433</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>214.4196307408201</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,10 +27593,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>193.1972797852378</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>218.8388043680908</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>121.4131036572083</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>38.21416051494421</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>86.74656227310859</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>389.7955748887689</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>177.7474064299902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28031,7 +28031,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28067,10 +28067,10 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>70.14615475062294</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,16 +31278,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31299,25 +31299,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>574.2721069128556</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>183.7183104822601</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,34 +32320,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>508.8976500257888</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>339.3493584601592</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>384.4721492652009</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33037,7 +33037,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>381.285518532932</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33046,7 +33046,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>490.5075832355669</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>597.1709559744727</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>250.3097721075164</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33970,13 +33970,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>514.6953762540926</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>266.6561007250657</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307157</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,13 +35096,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297102</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>472.254246449349</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35193,7 +35193,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>421.5874110062447</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>431.6758624684112</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>45.87687150790111</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>366.7636161037705</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>200.7949786802851</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36369,13 +36369,13 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>245.9177694853267</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36685,7 +36685,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>249.9438064495987</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>351.9532034556927</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>455.0369220524544</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>116.3353646931862</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>372.0991318096482</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>128.8146617507067</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3235375.869575958</v>
+        <v>3237136.399878743</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>307.9222910483171</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586846</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -901,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>163.0915657041709</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>267.0651105245797</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>61.86891074510375</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>132.9971948932742</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>17.08047085294254</v>
+        <v>40.95777413112244</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>95.81917536083697</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>170.9457618790577</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>100.2041656279966</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>90.14863908058081</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2529,13 +2529,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>144.8592102470453</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3195,13 +3195,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>11.56087338713362</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>132.6315337216687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.915471247702</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C2" t="n">
-        <v>1122.952954307291</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>764.6872557005402</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>378.8990031022959</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
         <v>67.86638588177355</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4372,10 +4372,10 @@
         <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2255.520561484593</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="C5" t="n">
-        <v>1886.558044544181</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="D5" t="n">
-        <v>1528.292345937431</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>804.3664156928878</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4564,55 +4564,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548715</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548715</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y5" t="n">
-        <v>2642.120401548715</v>
+        <v>1970.914677487029</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598714</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477.9194859165259</v>
+        <v>507.3364050629042</v>
       </c>
       <c r="C7" t="n">
-        <v>308.983302988619</v>
+        <v>338.4002221349973</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511405</v>
+        <v>188.2835827226616</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>188.2835827226616</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>188.2835827226616</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>188.2835827226616</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>188.2835827226616</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V7" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W7" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X7" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.9194859165259</v>
+        <v>507.3364050629042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>453.2058773455028</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="C8" t="n">
-        <v>84.24336040509104</v>
+        <v>494.150101163113</v>
       </c>
       <c r="D8" t="n">
-        <v>84.24336040509104</v>
+        <v>494.150101163113</v>
       </c>
       <c r="E8" t="n">
-        <v>84.24336040509104</v>
+        <v>108.3618485648688</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353292</v>
+        <v>66.99035954353295</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>242.5828808341008</v>
@@ -4810,46 +4810,46 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.463253419559</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1281.162666244968</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.496879136949</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2022.658083904028</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243321</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2287.242350260201</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>1956.17946291663</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1603.410807646516</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1229.945049385436</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>839.8057174096245</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4871,28 +4871,28 @@
         <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>338.2052143260215</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852433</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004795</v>
+        <v>99.84783883004798</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>502.0306379830699</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
         <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1185.889514203793</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
         <v>1432.170805967367</v>
@@ -4950,19 +4950,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,16 +5053,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.07903472198</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.7825789706076</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427007</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2024.390058741045</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.314832085242</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.630343879355</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.213173842395</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>963.2236229443774</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.4310438008473</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,19 +5354,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
         <v>1577.52840832642</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5503,34 +5503,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,34 +5734,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,19 +5834,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5998,10 +5998,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1022.530292372932</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>853.5941094450255</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>703.4774700326898</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>555.5643764502967</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>408.6744289523863</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1942.37805728168</v>
+        <v>1542.063419261731</v>
       </c>
       <c r="W25" t="n">
-        <v>1652.96088724472</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X25" t="n">
-        <v>1424.971336346702</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y25" t="n">
-        <v>1204.178757203172</v>
+        <v>803.8641191832229</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6317,10 +6317,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6551,10 +6551,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6791,13 +6791,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O33" t="n">
-        <v>2299.457522348532</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098237</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819168</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D34" t="n">
-        <v>664.3027814695811</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E34" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783593</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640063</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6955,10 +6955,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7171,31 +7171,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.079034721979</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7736,13 +7736,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7830,10 +7830,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
         <v>2035.268256189238</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627892</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8458,7 +8458,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284443</v>
+        <v>312.2066704284453</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263477</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>49.60187266209428</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>46.45968844823054</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>75.37549921168804</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>107.2784330767827</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25083,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>134.8730892594355</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>711132.8264488541</v>
+        <v>711132.8264488542</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>711132.8264488542</v>
+        <v>711132.8264488541</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312476</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.274728755</v>
-      </c>
       <c r="H2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287549</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287549</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="N2" t="n">
-        <v>706253.2747287554</v>
-      </c>
       <c r="O2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26401,10 +26401,10 @@
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682721</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682721</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682744</v>
@@ -26456,10 +26456,10 @@
         <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.04517084679</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-164337.8241097391</v>
+        <v>-164337.8241097394</v>
       </c>
       <c r="C6" t="n">
-        <v>425630.0551048054</v>
+        <v>425630.055104805</v>
       </c>
       <c r="D6" t="n">
-        <v>269826.2490110098</v>
+        <v>269826.2490110102</v>
       </c>
       <c r="E6" t="n">
-        <v>-171946.8622969981</v>
+        <v>-171634.2209680768</v>
       </c>
       <c r="F6" t="n">
-        <v>599105.8290838085</v>
+        <v>599418.47041273</v>
       </c>
       <c r="G6" t="n">
-        <v>599105.8290838082</v>
+        <v>599418.4704127298</v>
       </c>
       <c r="H6" t="n">
-        <v>599105.8290838085</v>
+        <v>599418.4704127301</v>
       </c>
       <c r="I6" t="n">
-        <v>599105.8290838082</v>
+        <v>599418.4704127302</v>
       </c>
       <c r="J6" t="n">
-        <v>422682.6098912155</v>
+        <v>422995.2512201365</v>
       </c>
       <c r="K6" t="n">
-        <v>599105.8290838087</v>
+        <v>599418.47041273</v>
       </c>
       <c r="L6" t="n">
-        <v>599105.8290838081</v>
+        <v>599418.4704127301</v>
       </c>
       <c r="M6" t="n">
-        <v>474897.3183757503</v>
+        <v>475209.9597046712</v>
       </c>
       <c r="N6" t="n">
-        <v>599105.8290838085</v>
+        <v>599418.4704127301</v>
       </c>
       <c r="O6" t="n">
-        <v>599105.8290838086</v>
+        <v>599418.47041273</v>
       </c>
       <c r="P6" t="n">
-        <v>599105.8290838089</v>
+        <v>599418.4704127302</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,10 +26995,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>98.95375469339433</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060688</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27621,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>218.8388043680908</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>146.7190594962153</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>86.74656227310859</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>1.96842689906407</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27861,10 +27861,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>389.7955748887689</v>
+        <v>365.918271610589</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,16 +31278,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31299,25 +31299,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>574.2721069128556</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,34 +32320,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>337.5641188593844</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32806,7 +32806,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33271,13 +33271,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33739,13 +33739,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M36" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33754,7 +33754,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>436.0678650906015</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34456,16 +34456,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>436.0678650906015</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307157</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,13 +35096,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,7 +35178,7 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297102</v>
+        <v>452.9426864297112</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
@@ -35260,10 +35260,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793668</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>431.6758624684112</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M18" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36369,7 +36369,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36439,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>199.0097390795102</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36454,7 +36454,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37387,13 +37387,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M36" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37402,7 +37402,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>302.0934576762713</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38104,16 +38104,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>302.0934576762713</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
